--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -363,7 +363,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43676.71403514947</v>
+        <v>43676.73059469667</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
